--- a/notebooks/inputs/paper3/points.xlsx
+++ b/notebooks/inputs/paper3/points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chloe\Documents\GitHub\pyKasso\notebooks\inputs\paper3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AA24B1-9EAA-43E5-A7FB-EAFB64CADA13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161F3FD5-364B-4B39-BD6A-543BFD75833B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{EC979380-3E34-4A22-99A9-C1F483730D9B}"/>
+    <workbookView xWindow="59415" yWindow="3405" windowWidth="14400" windowHeight="7380" xr2:uid="{EC979380-3E34-4A22-99A9-C1F483730D9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Holloch entrance</t>
   </si>
   <si>
-    <t>Central Gottesacker plateau East</t>
-  </si>
-  <si>
     <t>E9</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>N20</t>
   </si>
   <si>
-    <t>Overflow 1</t>
-  </si>
-  <si>
     <t>N18</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>*note: coordinates taken from SWMM nodes used in Zhao's model</t>
-  </si>
-  <si>
     <t>N34</t>
   </si>
   <si>
@@ -126,7 +117,55 @@
     <t>N36</t>
   </si>
   <si>
-    <t>*note: elevations taken from Nico's dissertation &amp; presentation</t>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Zhao's model (XY), Nico's dissertation (Z)</t>
+  </si>
+  <si>
+    <t>Hoeflealpe (overflow 1)</t>
+  </si>
+  <si>
+    <t>Plattenalpe (overflow 2)</t>
+  </si>
+  <si>
+    <t>QP</t>
+  </si>
+  <si>
+    <t>Nico's email (XY), topo map (Z)</t>
+  </si>
+  <si>
+    <t>Nico's email (XYZ)</t>
+  </si>
+  <si>
+    <t>Zhao's model (XYZ)</t>
+  </si>
+  <si>
+    <t>Nico's dissertation (XYZ)</t>
+  </si>
+  <si>
+    <t>Central Gottesacker plateau East inlet</t>
+  </si>
+  <si>
+    <t>Mahdtal inlet</t>
+  </si>
+  <si>
+    <t>N16</t>
+  </si>
+  <si>
+    <t>Zhao's model XY), DEM (Z)</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>Bo</t>
+  </si>
+  <si>
+    <t>Mahdtal inlet 2</t>
+  </si>
+  <si>
+    <t>N17</t>
   </si>
 </sst>
 </file>
@@ -488,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A822F3A9-5D34-40A8-A965-FEF6679AE93A}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -501,7 +540,7 @@
     <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -520,11 +559,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -532,7 +571,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1">
         <v>587747.52</v>
@@ -543,11 +582,11 @@
       <c r="F2" s="1">
         <v>1120</v>
       </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -555,7 +594,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1">
         <v>588123.61</v>
@@ -566,8 +605,11 @@
       <c r="F3" s="1">
         <v>1080</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -575,7 +617,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1">
         <v>588979.5</v>
@@ -586,68 +628,80 @@
       <c r="F4" s="1">
         <v>1035</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>588006.65644170204</v>
+        <v>587928.76</v>
       </c>
       <c r="E5" s="1">
-        <v>5247129.2003632803</v>
+        <v>5247144.0599999996</v>
       </c>
       <c r="F5" s="1">
         <v>1190</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1">
+        <v>588130.25786000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5246543.1316600004</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1140</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1">
-        <v>586830.69616787997</v>
-      </c>
-      <c r="E6">
-        <v>5247792.2752789296</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>584054.44093089702</v>
+        <v>588622.36059199995</v>
       </c>
       <c r="E7">
-        <v>5247056.6367315203</v>
+        <v>5246191.5034400001</v>
       </c>
       <c r="F7" s="1">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
+        <v>1050</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -655,24 +709,134 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>588590.61052800005</v>
+      </c>
+      <c r="E8">
+        <v>5245786.69013</v>
       </c>
       <c r="F8" s="1">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
+        <v>1040</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1040</v>
+      <c r="D9">
+        <v>590118.84691800002</v>
+      </c>
+      <c r="E9">
+        <v>5246707.44197</v>
+      </c>
+      <c r="F9">
+        <v>980</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1">
+        <v>586830.69616787997</v>
+      </c>
+      <c r="E10">
+        <v>5247792.2752789296</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1360</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1">
+        <v>585367.02755760099</v>
+      </c>
+      <c r="E11">
+        <v>5248151.7728323303</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1690</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1">
+        <v>586093.81366615195</v>
+      </c>
+      <c r="E12">
+        <v>5247973.2639635596</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1574</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>584054.44093089702</v>
+      </c>
+      <c r="E13">
+        <v>5247056.6367315203</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1700</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
